--- a/reporte_respuestas.xlsx
+++ b/reporte_respuestas.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Respuestas Usuario" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Datos Perfil" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Preguntas al especialista" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,19 +431,3471 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>¿De donde eres?</t>
+          <t>¿Te has realizado una mamografía?</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>¿Recuerdas cuando fue tu última mamografía?</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Fecha de la última mamografía</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>¿Tienes los archivos e informe de tu última mamografía?</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>¿Te gustaría recibir más información sobre el cuidado y prevención del cáncer de mama?</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>¿Tienes un familiar directo con cáncer de mama? (hermana, mama, tía, abuela)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>16546804-k</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Antes de 2022</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>15345890-1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No lo se</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>8863776-3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>14474178-1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Antes de 2022</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>9607565-0</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>108090960</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>102061780</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>9588965-4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11454389-6</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>159191206</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11451556-6</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>9664011-0</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>14506315-9</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Antes de 2022</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No lo se</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No lo se</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12462855_5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12462855-5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Antes de 2022</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>9833497-1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>16739051k</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>15430073-2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>18442212-3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>119763304</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>13450000k</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>16114264-6</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>16911157-k</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>17988192-6</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>18250076-3</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>8449984 6</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>9149504 k</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>16940269-8</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16632122-0</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>21322019-5</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>190052338</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>No lo se</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>18880177-3</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hola</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>No Aplica</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AnioNacimiento</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id_manychat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Rut</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Whatsapp</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Referencia</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Fecha_Ingreso</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Puente Alto</t>
+          <t>170587</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2081291682</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16739051k</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>56949967027</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Sandra</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2024-02-06 22:21:11.107222+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>03-02-1987</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1226028163</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16546804-k</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>56979432752</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Sandra</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2024-02-06 22:30:02.110171+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>07/01/1982</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1490499485</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15430073-2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>56974283604</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sandra</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2024-02-06 23:30:15.951958+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10-05-1993</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1366939124</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18442212-3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>56926484091</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sandra</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-02-06 23:39:45.206086+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2115424117</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>119763304</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56954954096</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sandra</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2024-02-07 00:15:54.118748+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12-12-1982</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>229918976</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15345890-1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>56977838303</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2024-02-07 02:56:56.964035+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>27/12/1977</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>963231300</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13450000k</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>56959874308</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2024-02-07 05:03:40.305614+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11-03-1985</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1850313748</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16114264-6</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>56934174251</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sandra</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2024-02-07 13:32:54.324456+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15/09/1988</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>901210248</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16911157-k</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>56931454032</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2024-02-07 16:26:05.178146+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>01-07-1992</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>64321036</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17988192-6</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>56926427915</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2024-02-08 00:03:11.334305+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>22-12-1992</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>913538215</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18250076-3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>56946850724</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2024-02-08 00:13:35.780096+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>7 8 60</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1579918345</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8449984 6</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>56935868941</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2024-02-08 00:18:36.194055+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>17 de marz</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1941848980</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9149504 k</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>56949587816</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2024-02-08 00:24:47.582023+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>15-8-1960</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1695311028</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8863776-3</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>56972000886</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2024-02-08 00:27:11.998082+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>17/10/1988</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>230419188</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16940269-8</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>56942710526</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2024-02-08 00:31:34.742083+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>15-11-76</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2132371836</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14474178-1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>56991599096</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2024-02-08 00:34:24.555345+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17-04-1965</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>217669409</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9607565-0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>56995030770</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2024-02-08 00:44:58.915525+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>31 Mayo 1966</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>496873982</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>108090960</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>56995799546</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2024-02-08 00:55:33.044213+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2 / 11/ 1964</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1558278435</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>102061780</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>56935925979</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2024-02-08 01:01:15.136596+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>22-04-1986</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>319811478</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16632122-0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>56958627737</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2024-02-08 01:42:22.192058+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>30-05-2003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1537671199</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>21322019-5</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>56950259695</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2024-02-08 01:44:09.749256+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1 julio 1960</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>765999237</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9588965-4</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>56990804392</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024-02-08 01:48:21.253537+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>11/06/1969</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2013577365</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11454389-6</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>56985502411</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2024-02-08 01:48:57.248823+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>25/11/1984</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>729844244</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>159191206</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>56955118575</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2024-02-08 01:49:24.038928+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>16 de septiembre 1969</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>263146829</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11451556-6</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>56983669561</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2024-02-08 02:09:42.866076+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>24/06/1963</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1370958961</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9664011-0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>56994041146</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2024-02-08 02:21:18.076668+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>05/11/1974</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1882905223</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14506315-9</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>56991683921</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2024-02-08 03:28:40.325970+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>24 de diciembre 1972</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>139457776</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12462855_5</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>56963174690</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2024-02-08 03:33:47.013686+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>25-04-1995</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>271505200</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>190052338</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>56953060636</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sandra</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2024-02-08 14:25:22.026635+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>El 24 de diciembre 1972</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>139457776</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12462855-5</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>56963174690</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Melina</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2024-02-09 02:53:38.034944+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>20-07-1994</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1646860544</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>56945307144</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2024-02-09 16:22:39.239009+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>28-03-1981</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>743119091</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9833497-1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>56982990191</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2024-02-10 00:04:11.026062+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>20-07-1994</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1646860544</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>56945307144</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2024-02-12 11:59:50.164160+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>20-07-1994</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1646860544</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>56945307144</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2024-02-12 12:11:14.897961+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>20-07-1994</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1646860544</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>56945307144</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2024-02-12 14:13:33.749975+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>20-07-1994</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1646860544</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Hola</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>56945307144</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2024-02-13 14:15:17.049429+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>20-07-1994</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1646860544</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>56945307144</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2024-02-13 14:19:56.539732+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>20-07-1994</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1646860544</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>56945307144</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2024-02-13 14:40:21.951320+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>20-07-1994</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1646860544</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>56945307144</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2024-02-13 18:34:55.661200+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>20-07-1994</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1646860544</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>56945307144</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2024-02-13 18:37:53.519413+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>20-07-1994</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1646860544</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>56945307144</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2024-02-14 15:35:32.813288+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>20-07-1994</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1646860544</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>56945307144</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2024-02-14 15:41:22.165608+00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rut</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>texto_pregunta</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>fecha_pregunta</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>16546804-k</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-02-06 22:30:45.837528+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>15430073-2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A mí la matrona me mandó a hacerme una mamografía y después una ecomamaria por unos nódulos en los pechos</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-02-06 23:31:28.181541+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>18442212-3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-02-06 23:40:05.277620+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>119763304</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Si tengo preguntas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-02-07 00:18:44.682477+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15345890-1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-02-07 02:57:56.465949+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13450000k</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Como me puedo hacer una mmaografia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-02-07 05:04:57.172786+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>16114264-6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Debería ser las mamografía de los 18 años en adelante no desde los 40 años en adelante</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-02-07 13:34:27.229279+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>16911157-k</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>No tengo preguntas por aora</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-02-07 16:26:58.157522+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>17988192-6</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Es normal que salgan espenillas en las mamas ?</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-02-08 00:03:52.753024+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>18250076-3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-02-08 00:14:11.963740+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>8449984 6</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tuve nódulos y por no haber hora no me he revisado</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-02-08 00:19:31.506031+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>9149504 k</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cómo se detesta el cáncer de mama</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-02-08 00:26:47.987728+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>16940269-8</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-02-08 00:31:56.209429+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>9607565-0</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>es necesario hacer mamagrafia anual</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-02-08 00:47:47.997490+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>108090960</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>A que edad debieran realizar la primera mamografia</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-02-08 00:57:01.172870+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>102061780</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Por ahora no muchas gracias</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-02-08 01:10:59.786261+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>16632122-0</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>A qué edad me debo hacer la primera mamografía ?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-02-08 01:43:28.491349+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>21322019-5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Desde que edad se recomienda ahora hacerse el examen del cáncer de mamá?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-02-08 01:45:31.834870+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>9588965-4</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-02-08 01:49:17.774127+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>11454389-6</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Muchas gracias</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-02-08 01:50:13.006889+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>159191206</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Com detectar a tiempo un cáncer de mamas</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-02-08 01:50:45.373556+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>9664011-0</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Como se puede saber si tienes cáncer</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-02-08 02:23:40.833490+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14506315-9</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Si tengo cáncer de tiroides puedo tener cáncer de mamas</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-02-08 03:31:32.545298+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12462855_5</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Como se detecta el cancer de mamas</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-02-08 03:35:32.506872+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>190052338</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Por que ahí que revisarse?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-02-08 14:26:10.740074+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12462855-5</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Muchas gracias por las preguntas</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-02-09 02:55:38.021850+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hola</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-02-09 16:22:55.479350+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>9833497-1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Gracias</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-02-10 00:04:45.931925+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-02-12 14:13:47.250946+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Hola</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-02-13 14:15:29.494625+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2024-02-13 14:20:10.555197+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2024-02-13 14:40:36.370285+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2024-02-13 18:35:10.182837+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ni</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2024-02-13 18:38:06.942636+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2024-02-14 15:36:07.497448+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2024-02-14 15:41:35.414293+00:00</t>
         </is>
       </c>
     </row>
